--- a/Viable Titre/output_19-12.xlsx
+++ b/Viable Titre/output_19-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,45 +446,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>Dilution_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Dilution_1</t>
+          <t>Dilution_2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Dilution_2</t>
+          <t>Colonies_1A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Colonies_1A</t>
+          <t>Colonies_1B</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Colonies_1B</t>
+          <t>Colonies_2A</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Colonies_2A</t>
+          <t>Colonies_2B</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Colonies_2B</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Titre</t>
         </is>
@@ -496,57 +491,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XX</t>
+          <t>SLM1043</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cm</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>10e-4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10e-2</t>
+          <t>10e-5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10e-6</t>
+          <t>376</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>376</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6543</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>3704129.5870412956</t>
+          <t>3699999.9999999995</t>
         </is>
       </c>
     </row>
